--- a/data/Fig_2.xlsx
+++ b/data/Fig_2.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200BC22E-E045-4720-B94C-45DCB6A6A64F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,6 +143,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7358CCD-EDEA-4C8D-9E19-0A78B20DE013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4625340" cy="8543544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,26 +462,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="16.77734375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -432,7 +489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +500,7 @@
         <v>21.65279</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,7 +511,7 @@
         <v>14.196540000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -465,7 +522,7 @@
         <v>5.875858</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -476,7 +533,7 @@
         <v>5.5291930000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,12 +544,12 @@
         <v>5.9978540000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +560,7 @@
         <v>49.096080000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +571,7 @@
         <v>27.494769999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -525,7 +582,7 @@
         <v>19.965240000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -536,7 +593,7 @@
         <v>17.591899999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -547,12 +604,12 @@
         <v>17.579280000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +620,7 @@
         <v>47.174050000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,7 +631,7 @@
         <v>28.95918</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,7 +642,7 @@
         <v>26.50536</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -596,7 +653,7 @@
         <v>25.036850000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -607,12 +664,12 @@
         <v>25.087949999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +680,7 @@
         <v>58.577759999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -634,7 +691,7 @@
         <v>39.19435</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -645,7 +702,7 @@
         <v>38.625160000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,7 +713,7 @@
         <v>37.630670000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -667,12 +724,12 @@
         <v>37.67801</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +740,7 @@
         <v>65.012590000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -694,7 +751,7 @@
         <v>46.864510000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -705,7 +762,7 @@
         <v>47.736179999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -716,7 +773,7 @@
         <v>47.422989999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -727,12 +784,12 @@
         <v>47.551499999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +800,7 @@
         <v>71.53622</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -754,7 +811,7 @@
         <v>56.510750000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -765,7 +822,7 @@
         <v>54.989350000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,7 +833,7 @@
         <v>54.56823</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,12 +844,12 @@
         <v>54.68112</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +860,7 @@
         <v>73.994489999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -814,7 +871,7 @@
         <v>60.476689999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -825,7 +882,7 @@
         <v>57.798400000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,7 +893,7 @@
         <v>58.779820000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -847,12 +904,12 @@
         <v>59.020479999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +920,7 @@
         <v>76.311300000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -874,7 +931,7 @@
         <v>65.027990000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -885,7 +942,7 @@
         <v>61.799390000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -896,7 +953,7 @@
         <v>64.284620000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,12 +964,12 @@
         <v>64.933850000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +980,7 @@
         <v>62.45</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -934,7 +991,7 @@
         <v>40.880000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -945,7 +1002,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -956,7 +1013,7 @@
         <v>36.630000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -971,4 +1028,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337E770A-1F62-4A3E-9C0B-F4D7654CABD8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>